--- a/data/pca/factorExposure/factorExposure_2014-07-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.004421057022142026</v>
+        <v>0.02118473437742775</v>
       </c>
       <c r="C2">
-        <v>-0.1514999586742009</v>
+        <v>-0.07102455878836424</v>
       </c>
       <c r="D2">
-        <v>0.03801544192886722</v>
+        <v>0.03347660086825622</v>
       </c>
       <c r="E2">
-        <v>0.2376721792890233</v>
+        <v>0.02148079661466227</v>
       </c>
       <c r="F2">
-        <v>-0.06741388333346135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.02910407686765725</v>
+      </c>
+      <c r="G2">
+        <v>-0.1493485453863795</v>
+      </c>
+      <c r="H2">
+        <v>0.02391748616831396</v>
+      </c>
+      <c r="I2">
+        <v>-0.0418153258059072</v>
+      </c>
+      <c r="J2">
+        <v>0.1324061520524982</v>
+      </c>
+      <c r="K2">
+        <v>-0.08083002098812041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01234397482177512</v>
+        <v>0.02376974241506231</v>
       </c>
       <c r="C4">
-        <v>-0.1758180760585671</v>
+        <v>-0.1430482333486436</v>
       </c>
       <c r="D4">
-        <v>0.05168686017798455</v>
+        <v>0.0642120685627897</v>
       </c>
       <c r="E4">
-        <v>0.03201266704574612</v>
+        <v>0.01996142674809347</v>
       </c>
       <c r="F4">
-        <v>0.07799096604562193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.05788766232823166</v>
+      </c>
+      <c r="G4">
+        <v>-0.01988637662514385</v>
+      </c>
+      <c r="H4">
+        <v>-0.008366205473577722</v>
+      </c>
+      <c r="I4">
+        <v>0.03093446766041894</v>
+      </c>
+      <c r="J4">
+        <v>0.09740079440167172</v>
+      </c>
+      <c r="K4">
+        <v>-0.01562569781129217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.03409122038453268</v>
+        <v>0.04333555227428144</v>
       </c>
       <c r="C6">
-        <v>-0.07439571318537821</v>
+        <v>-0.08616806947450248</v>
       </c>
       <c r="D6">
-        <v>0.07848808208949679</v>
+        <v>0.02776374018053137</v>
       </c>
       <c r="E6">
-        <v>0.03484058670275801</v>
+        <v>-0.007713652944016795</v>
       </c>
       <c r="F6">
-        <v>-0.01126633747136909</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.009889388483678183</v>
+      </c>
+      <c r="G6">
+        <v>-0.0463764413783779</v>
+      </c>
+      <c r="H6">
+        <v>-0.03036373685607085</v>
+      </c>
+      <c r="I6">
+        <v>0.0790008394031025</v>
+      </c>
+      <c r="J6">
+        <v>-0.0002164084301269839</v>
+      </c>
+      <c r="K6">
+        <v>-0.06569185548878287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.01842259882486825</v>
+        <v>0.02198387901108265</v>
       </c>
       <c r="C7">
-        <v>-0.08027073289056674</v>
+        <v>-0.07329212465008658</v>
       </c>
       <c r="D7">
-        <v>0.05002729906040348</v>
+        <v>0.03231124444178644</v>
       </c>
       <c r="E7">
-        <v>0.00145746386072511</v>
+        <v>-0.00601880327740164</v>
       </c>
       <c r="F7">
-        <v>-0.01629384134754109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.006327442467044374</v>
+      </c>
+      <c r="G7">
+        <v>0.01600593486617602</v>
+      </c>
+      <c r="H7">
+        <v>-0.01952161166334321</v>
+      </c>
+      <c r="I7">
+        <v>0.01658904521263625</v>
+      </c>
+      <c r="J7">
+        <v>0.1064544127946176</v>
+      </c>
+      <c r="K7">
+        <v>-0.01922146154154373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01358207155309874</v>
+        <v>0.003847203888298334</v>
       </c>
       <c r="C8">
-        <v>-0.07185212308824263</v>
+        <v>-0.06267915563965325</v>
       </c>
       <c r="D8">
-        <v>0.02044251370309349</v>
+        <v>0.04542500175074848</v>
       </c>
       <c r="E8">
-        <v>0.08464850954553828</v>
+        <v>-0.02333321372557594</v>
       </c>
       <c r="F8">
-        <v>0.01467049622225181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03704667851336092</v>
+      </c>
+      <c r="G8">
+        <v>-0.05722427340455884</v>
+      </c>
+      <c r="H8">
+        <v>-0.04600598249877558</v>
+      </c>
+      <c r="I8">
+        <v>0.02659796934304516</v>
+      </c>
+      <c r="J8">
+        <v>0.03326132309116832</v>
+      </c>
+      <c r="K8">
+        <v>0.01257466288455933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.004367342854501475</v>
+        <v>0.01527470190659266</v>
       </c>
       <c r="C9">
-        <v>-0.1219552390307555</v>
+        <v>-0.0977225354734484</v>
       </c>
       <c r="D9">
-        <v>0.0578914623010108</v>
+        <v>0.0401057222053989</v>
       </c>
       <c r="E9">
-        <v>0.002057895628509227</v>
+        <v>0.02656954715980504</v>
       </c>
       <c r="F9">
-        <v>0.02055118275519434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02149989272290987</v>
+      </c>
+      <c r="G9">
+        <v>-0.0124002977865442</v>
+      </c>
+      <c r="H9">
+        <v>-0.02266718337519285</v>
+      </c>
+      <c r="I9">
+        <v>0.01337022215551925</v>
+      </c>
+      <c r="J9">
+        <v>0.1082275355865101</v>
+      </c>
+      <c r="K9">
+        <v>-0.02316069832950344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2613827950093884</v>
+        <v>0.2410810849823093</v>
       </c>
       <c r="C10">
-        <v>0.08097184024784167</v>
+        <v>0.1053145657337435</v>
       </c>
       <c r="D10">
-        <v>-0.04002194597843876</v>
+        <v>-0.007344458324829043</v>
       </c>
       <c r="E10">
-        <v>-0.02347696132141348</v>
+        <v>-0.03961445967164071</v>
       </c>
       <c r="F10">
-        <v>0.05118732400266768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0109098330044385</v>
+      </c>
+      <c r="G10">
+        <v>-0.02643719245890301</v>
+      </c>
+      <c r="H10">
+        <v>-0.0319770717360168</v>
+      </c>
+      <c r="I10">
+        <v>0.05423337525206782</v>
+      </c>
+      <c r="J10">
+        <v>0.01370221651950213</v>
+      </c>
+      <c r="K10">
+        <v>0.1488742209357203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.007417986045457257</v>
+        <v>0.01982660248380825</v>
       </c>
       <c r="C11">
-        <v>-0.06787465078393226</v>
+        <v>-0.07954526746960222</v>
       </c>
       <c r="D11">
-        <v>0.0376603421607109</v>
+        <v>0.04131252038006106</v>
       </c>
       <c r="E11">
-        <v>-0.03596370074829539</v>
+        <v>0.01799452148356336</v>
       </c>
       <c r="F11">
-        <v>0.008407573319439225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.001338568180634977</v>
+      </c>
+      <c r="G11">
+        <v>0.01180477483719748</v>
+      </c>
+      <c r="H11">
+        <v>-0.01702332192806218</v>
+      </c>
+      <c r="I11">
+        <v>-0.0005971348294809923</v>
+      </c>
+      <c r="J11">
+        <v>0.02830012723325568</v>
+      </c>
+      <c r="K11">
+        <v>-0.02418901660037558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.007459569280306797</v>
+        <v>0.01868338719108604</v>
       </c>
       <c r="C12">
-        <v>-0.04538366898349433</v>
+        <v>-0.0526840605138674</v>
       </c>
       <c r="D12">
-        <v>0.04153391626226444</v>
+        <v>0.02557708793680455</v>
       </c>
       <c r="E12">
-        <v>-0.02717895674654072</v>
+        <v>0.01098847323516856</v>
       </c>
       <c r="F12">
-        <v>-0.01740090874352163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01822036175791621</v>
+      </c>
+      <c r="G12">
+        <v>-0.003204320496484983</v>
+      </c>
+      <c r="H12">
+        <v>-0.01459804180853341</v>
+      </c>
+      <c r="I12">
+        <v>0.02222973800777962</v>
+      </c>
+      <c r="J12">
+        <v>0.02485254977733632</v>
+      </c>
+      <c r="K12">
+        <v>-0.01062931757250202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.002733256859702888</v>
+        <v>0.009831163591696604</v>
       </c>
       <c r="C13">
-        <v>-0.1161480851646031</v>
+        <v>-0.1088432939674956</v>
       </c>
       <c r="D13">
-        <v>0.06009767584802574</v>
+        <v>0.04538638009964852</v>
       </c>
       <c r="E13">
-        <v>0.08454307759995154</v>
+        <v>0.0001351952385884733</v>
       </c>
       <c r="F13">
-        <v>-0.08861858928444714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0195802782531036</v>
+      </c>
+      <c r="G13">
+        <v>-0.1559010465030842</v>
+      </c>
+      <c r="H13">
+        <v>0.07868476177624563</v>
+      </c>
+      <c r="I13">
+        <v>0.05987154265912668</v>
+      </c>
+      <c r="J13">
+        <v>0.2259569139042948</v>
+      </c>
+      <c r="K13">
+        <v>0.2008587222873374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.007895746795867178</v>
+        <v>0.02351827661312799</v>
       </c>
       <c r="C14">
-        <v>-0.08323874562206382</v>
+        <v>-0.07430282924182695</v>
       </c>
       <c r="D14">
-        <v>0.04776722997943345</v>
+        <v>0.04403473299983218</v>
       </c>
       <c r="E14">
-        <v>0.003502530734157157</v>
+        <v>-0.01359538172558269</v>
       </c>
       <c r="F14">
-        <v>-0.03998085766310917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03124531731260533</v>
+      </c>
+      <c r="G14">
+        <v>-0.02545686136044121</v>
+      </c>
+      <c r="H14">
+        <v>-0.0526844746840869</v>
+      </c>
+      <c r="I14">
+        <v>0.09780793788935321</v>
+      </c>
+      <c r="J14">
+        <v>0.1808303493646139</v>
+      </c>
+      <c r="K14">
+        <v>0.006795301881123201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.005031440708368882</v>
+        <v>0.005090925875412653</v>
       </c>
       <c r="C15">
-        <v>-0.07834530060527987</v>
+        <v>-0.07132985672620837</v>
       </c>
       <c r="D15">
-        <v>0.02946576593812115</v>
+        <v>0.03281819122887458</v>
       </c>
       <c r="E15">
-        <v>0.01661817635269471</v>
+        <v>0.01066409646906297</v>
       </c>
       <c r="F15">
-        <v>0.01042603777123289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.03442603096555127</v>
+      </c>
+      <c r="G15">
+        <v>-0.006455755060251458</v>
+      </c>
+      <c r="H15">
+        <v>-0.03336088509906446</v>
+      </c>
+      <c r="I15">
+        <v>0.0380943301632132</v>
+      </c>
+      <c r="J15">
+        <v>0.07167532056356868</v>
+      </c>
+      <c r="K15">
+        <v>-0.01687532468333854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.007899845196594819</v>
+        <v>0.0180529421800611</v>
       </c>
       <c r="C16">
-        <v>-0.05420093608802259</v>
+        <v>-0.06038376885030667</v>
       </c>
       <c r="D16">
-        <v>0.02924307284706159</v>
+        <v>0.0258487026101707</v>
       </c>
       <c r="E16">
-        <v>-0.02347182853808484</v>
+        <v>0.01196862346058221</v>
       </c>
       <c r="F16">
-        <v>-0.002490557653398766</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.001669484460880967</v>
+      </c>
+      <c r="G16">
+        <v>0.0072024620964266</v>
+      </c>
+      <c r="H16">
+        <v>-0.008385123411721845</v>
+      </c>
+      <c r="I16">
+        <v>0.006490253817507042</v>
+      </c>
+      <c r="J16">
+        <v>0.02206906897567477</v>
+      </c>
+      <c r="K16">
+        <v>-0.02047446926904573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01181270248488069</v>
+        <v>0.018856945055953</v>
       </c>
       <c r="C20">
-        <v>-0.09515098990804501</v>
+        <v>-0.08635788567697482</v>
       </c>
       <c r="D20">
-        <v>0.04969730859656047</v>
+        <v>0.02730178464316669</v>
       </c>
       <c r="E20">
-        <v>-0.05240171017117082</v>
+        <v>0.003625276660026343</v>
       </c>
       <c r="F20">
-        <v>-0.007038150154722888</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01202104813337585</v>
+      </c>
+      <c r="G20">
+        <v>0.02235313655800896</v>
+      </c>
+      <c r="H20">
+        <v>-0.04228896906656139</v>
+      </c>
+      <c r="I20">
+        <v>0.03626597405345465</v>
+      </c>
+      <c r="J20">
+        <v>0.05896318598549907</v>
+      </c>
+      <c r="K20">
+        <v>-0.01397446482863393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.009998871644364495</v>
+        <v>0.01481303690066112</v>
       </c>
       <c r="C21">
-        <v>-0.07652439853650782</v>
+        <v>-0.06688500225997966</v>
       </c>
       <c r="D21">
-        <v>0.001490636260764306</v>
+        <v>0.01611857952723213</v>
       </c>
       <c r="E21">
-        <v>0.0231075293347812</v>
+        <v>-0.01487237481224782</v>
       </c>
       <c r="F21">
-        <v>-0.08913154639429191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.05730216903488998</v>
+      </c>
+      <c r="G21">
+        <v>-0.07159620373563604</v>
+      </c>
+      <c r="H21">
+        <v>-0.04746786359589335</v>
+      </c>
+      <c r="I21">
+        <v>0.02729259428196507</v>
+      </c>
+      <c r="J21">
+        <v>0.1282729220220536</v>
+      </c>
+      <c r="K21">
+        <v>0.02200120633826272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.002371220214740433</v>
+        <v>0.01042246549320406</v>
       </c>
       <c r="C22">
-        <v>-0.2619075470828839</v>
+        <v>-0.1665772268516018</v>
       </c>
       <c r="D22">
-        <v>-0.10621914262689</v>
+        <v>0.01549081062472384</v>
       </c>
       <c r="E22">
-        <v>0.3444724020546951</v>
+        <v>0.02121154243633608</v>
       </c>
       <c r="F22">
-        <v>0.2477806238015045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.3861856420814491</v>
+      </c>
+      <c r="G22">
+        <v>-0.3467663774482879</v>
+      </c>
+      <c r="H22">
+        <v>0.2535403110769219</v>
+      </c>
+      <c r="I22">
+        <v>-0.07389437173552385</v>
+      </c>
+      <c r="J22">
+        <v>-0.2420773779898481</v>
+      </c>
+      <c r="K22">
+        <v>-0.002155699844925556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.001343910519927807</v>
+        <v>0.01542357823708561</v>
       </c>
       <c r="C23">
-        <v>-0.2652548794122318</v>
+        <v>-0.1691280023712725</v>
       </c>
       <c r="D23">
-        <v>-0.1109254155130223</v>
+        <v>0.01504666884537209</v>
       </c>
       <c r="E23">
-        <v>0.3379411778492457</v>
+        <v>0.02539969616263041</v>
       </c>
       <c r="F23">
-        <v>0.2451198827096944</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.3748861505573665</v>
+      </c>
+      <c r="G23">
+        <v>-0.3383172300101553</v>
+      </c>
+      <c r="H23">
+        <v>0.2404202354630088</v>
+      </c>
+      <c r="I23">
+        <v>-0.07122274371184414</v>
+      </c>
+      <c r="J23">
+        <v>-0.2232526732877186</v>
+      </c>
+      <c r="K23">
+        <v>-0.007199374144665178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.005658110933959434</v>
+        <v>0.01880151000688971</v>
       </c>
       <c r="C24">
-        <v>-0.05985018110638487</v>
+        <v>-0.06361005782883969</v>
       </c>
       <c r="D24">
-        <v>0.05114901148711226</v>
+        <v>0.04042792536481666</v>
       </c>
       <c r="E24">
-        <v>-0.0257173507778386</v>
+        <v>0.01920458618705451</v>
       </c>
       <c r="F24">
-        <v>0.00155142070403259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.001123521954318102</v>
+      </c>
+      <c r="G24">
+        <v>0.008128852627506716</v>
+      </c>
+      <c r="H24">
+        <v>-0.01444138112470226</v>
+      </c>
+      <c r="I24">
+        <v>0.01527400146964966</v>
+      </c>
+      <c r="J24">
+        <v>0.03965082039156344</v>
+      </c>
+      <c r="K24">
+        <v>-0.02161004184994493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.0062527826339512</v>
+        <v>0.02413383751669569</v>
       </c>
       <c r="C25">
-        <v>-0.0642133651717909</v>
+        <v>-0.06753760353702838</v>
       </c>
       <c r="D25">
-        <v>0.0266522196123346</v>
+        <v>0.03349113319778567</v>
       </c>
       <c r="E25">
-        <v>-0.03082960987736073</v>
+        <v>0.01968880630165834</v>
       </c>
       <c r="F25">
-        <v>-0.004162507603386861</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>5.931164089006116e-05</v>
+      </c>
+      <c r="G25">
+        <v>0.007555451375540211</v>
+      </c>
+      <c r="H25">
+        <v>-0.01428697794004021</v>
+      </c>
+      <c r="I25">
+        <v>0.00548056302435841</v>
+      </c>
+      <c r="J25">
+        <v>0.03733197196114157</v>
+      </c>
+      <c r="K25">
+        <v>-0.009155348033948013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.005188126893917</v>
+        <v>0.02316221473278319</v>
       </c>
       <c r="C26">
-        <v>-0.04606733504553726</v>
+        <v>-0.05073942358395112</v>
       </c>
       <c r="D26">
-        <v>0.08255298550179789</v>
+        <v>0.05887723834948447</v>
       </c>
       <c r="E26">
-        <v>-0.01594395242337765</v>
+        <v>0.01566133086668943</v>
       </c>
       <c r="F26">
-        <v>-0.0375054051200682</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.004831721383720052</v>
+      </c>
+      <c r="G26">
+        <v>0.01137506088796641</v>
+      </c>
+      <c r="H26">
+        <v>-0.0340426419010905</v>
+      </c>
+      <c r="I26">
+        <v>-0.01110367208891813</v>
+      </c>
+      <c r="J26">
+        <v>0.1165963727821107</v>
+      </c>
+      <c r="K26">
+        <v>-0.07247179457089481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3396552772949429</v>
+        <v>0.3035617955480357</v>
       </c>
       <c r="C28">
-        <v>0.09703840195126248</v>
+        <v>0.1268387772217399</v>
       </c>
       <c r="D28">
-        <v>-0.0333371926701287</v>
+        <v>-0.02993635632807139</v>
       </c>
       <c r="E28">
-        <v>0.003170964333591932</v>
+        <v>-0.03500215873332566</v>
       </c>
       <c r="F28">
-        <v>0.0365069535774987</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01847615255354794</v>
+      </c>
+      <c r="G28">
+        <v>-0.04772174890823245</v>
+      </c>
+      <c r="H28">
+        <v>-0.03261838206757274</v>
+      </c>
+      <c r="I28">
+        <v>-0.08910089854957386</v>
+      </c>
+      <c r="J28">
+        <v>0.03281013072597602</v>
+      </c>
+      <c r="K28">
+        <v>0.2102877183661705</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.0017133895949462</v>
+        <v>0.01950111082133796</v>
       </c>
       <c r="C29">
-        <v>-0.07675600985261338</v>
+        <v>-0.07999542380758981</v>
       </c>
       <c r="D29">
-        <v>0.05411723757989244</v>
+        <v>0.0441016142407671</v>
       </c>
       <c r="E29">
-        <v>-0.01114596454234893</v>
+        <v>0.01276963307790395</v>
       </c>
       <c r="F29">
-        <v>-0.03964795515256408</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03728833500226728</v>
+      </c>
+      <c r="G29">
+        <v>-0.02390623192145865</v>
+      </c>
+      <c r="H29">
+        <v>-0.06033446102481915</v>
+      </c>
+      <c r="I29">
+        <v>0.1556674817227741</v>
+      </c>
+      <c r="J29">
+        <v>0.2511137733669629</v>
+      </c>
+      <c r="K29">
+        <v>0.03862869528433625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02295566432296601</v>
+        <v>0.04174535608606812</v>
       </c>
       <c r="C30">
-        <v>-0.1646879069132681</v>
+        <v>-0.1452579153770455</v>
       </c>
       <c r="D30">
-        <v>0.06923318445805715</v>
+        <v>0.054638790836052</v>
       </c>
       <c r="E30">
-        <v>0.0404053955655307</v>
+        <v>0.01883151340575394</v>
       </c>
       <c r="F30">
-        <v>0.02607598079433909</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04161581278214694</v>
+      </c>
+      <c r="G30">
+        <v>-0.02374778521351035</v>
+      </c>
+      <c r="H30">
+        <v>-0.03210337309423455</v>
+      </c>
+      <c r="I30">
+        <v>0.04553509416091678</v>
+      </c>
+      <c r="J30">
+        <v>0.0368101709979301</v>
+      </c>
+      <c r="K30">
+        <v>-0.07467289399498256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003064590304290871</v>
+        <v>0.01672502489476949</v>
       </c>
       <c r="C31">
-        <v>-0.05398749522270484</v>
+        <v>-0.07464057479832797</v>
       </c>
       <c r="D31">
-        <v>0.02835297616844966</v>
+        <v>0.03932422230539576</v>
       </c>
       <c r="E31">
-        <v>-0.01445875220644248</v>
+        <v>0.002253769740032912</v>
       </c>
       <c r="F31">
-        <v>0.0049177004114516</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01032405262578583</v>
+      </c>
+      <c r="G31">
+        <v>-0.004868334566385382</v>
+      </c>
+      <c r="H31">
+        <v>-0.02941257168237687</v>
+      </c>
+      <c r="I31">
+        <v>-0.0153024343363589</v>
+      </c>
+      <c r="J31">
+        <v>0.03415074385562543</v>
+      </c>
+      <c r="K31">
+        <v>-0.009506386203614693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.003736294827009604</v>
+        <v>0.02225457110430826</v>
       </c>
       <c r="C32">
-        <v>-0.08227898986307328</v>
+        <v>-0.0485258206009693</v>
       </c>
       <c r="D32">
-        <v>0.006535971036857307</v>
+        <v>0.02592858662263171</v>
       </c>
       <c r="E32">
-        <v>0.1610271429548739</v>
+        <v>-0.005468099386287718</v>
       </c>
       <c r="F32">
-        <v>-0.02593522701579621</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01222816368699669</v>
+      </c>
+      <c r="G32">
+        <v>-0.1015878163416691</v>
+      </c>
+      <c r="H32">
+        <v>0.03996330755007408</v>
+      </c>
+      <c r="I32">
+        <v>0.0569727927318229</v>
+      </c>
+      <c r="J32">
+        <v>0.1776599808431035</v>
+      </c>
+      <c r="K32">
+        <v>0.2632339371702431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.00727918349640607</v>
+        <v>0.01943794106477928</v>
       </c>
       <c r="C33">
-        <v>-0.0925915980146329</v>
+        <v>-0.1003323480233475</v>
       </c>
       <c r="D33">
-        <v>0.06265158744931601</v>
+        <v>0.04924237228222045</v>
       </c>
       <c r="E33">
-        <v>-0.01825848864875705</v>
+        <v>0.008909029287342515</v>
       </c>
       <c r="F33">
-        <v>-0.007050380339518815</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02015532049814235</v>
+      </c>
+      <c r="G33">
+        <v>-0.009262486015954819</v>
+      </c>
+      <c r="H33">
+        <v>-0.01077105568651518</v>
+      </c>
+      <c r="I33">
+        <v>0.03030358176920713</v>
+      </c>
+      <c r="J33">
+        <v>0.0589094052382319</v>
+      </c>
+      <c r="K33">
+        <v>0.01768382898566384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.004893115250063767</v>
+        <v>0.0190640010455883</v>
       </c>
       <c r="C34">
-        <v>-0.04632470163220501</v>
+        <v>-0.04940136260290002</v>
       </c>
       <c r="D34">
-        <v>0.02383647697710527</v>
+        <v>0.02081148002120984</v>
       </c>
       <c r="E34">
-        <v>-0.01256626316910151</v>
+        <v>0.01816680125273211</v>
       </c>
       <c r="F34">
-        <v>-0.01628809630731187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.008998268642931405</v>
+      </c>
+      <c r="G34">
+        <v>0.006169222690741082</v>
+      </c>
+      <c r="H34">
+        <v>-0.01642221751545353</v>
+      </c>
+      <c r="I34">
+        <v>0.02521504591380946</v>
+      </c>
+      <c r="J34">
+        <v>-0.003968377498373097</v>
+      </c>
+      <c r="K34">
+        <v>-0.01188375429891359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.0001248111160385868</v>
+        <v>0.012796481317571</v>
       </c>
       <c r="C35">
-        <v>-0.03135169599370319</v>
+        <v>-0.04817814762063098</v>
       </c>
       <c r="D35">
-        <v>0.01742472425025123</v>
+        <v>0.02402871015495968</v>
       </c>
       <c r="E35">
-        <v>-0.004355768852158272</v>
+        <v>0.002468402890627612</v>
       </c>
       <c r="F35">
-        <v>-0.01409112623441743</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.002883903031538945</v>
+      </c>
+      <c r="G35">
+        <v>-0.01161109315957946</v>
+      </c>
+      <c r="H35">
+        <v>-0.05829572816844466</v>
+      </c>
+      <c r="I35">
+        <v>0.06455765332588727</v>
+      </c>
+      <c r="J35">
+        <v>0.1259603726147063</v>
+      </c>
+      <c r="K35">
+        <v>0.03927918241589286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.002796569942672001</v>
+        <v>0.01484829908482078</v>
       </c>
       <c r="C36">
-        <v>-0.04673770446508777</v>
+        <v>-0.04482322858846315</v>
       </c>
       <c r="D36">
-        <v>0.0516665972047815</v>
+        <v>0.03837638069541376</v>
       </c>
       <c r="E36">
-        <v>-0.01137548762416558</v>
+        <v>-0.0008792907316655693</v>
       </c>
       <c r="F36">
-        <v>-0.01159867127529722</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01357209157134849</v>
+      </c>
+      <c r="G36">
+        <v>-0.008985930643575125</v>
+      </c>
+      <c r="H36">
+        <v>-0.02359988382398251</v>
+      </c>
+      <c r="I36">
+        <v>-0.002936344543566748</v>
+      </c>
+      <c r="J36">
+        <v>0.08940863666635755</v>
+      </c>
+      <c r="K36">
+        <v>-0.02444606157479598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02490888740470063</v>
+        <v>0.01309305401091449</v>
       </c>
       <c r="C38">
-        <v>-0.04471634539575495</v>
+        <v>-0.05934243397923063</v>
       </c>
       <c r="D38">
-        <v>0.04412505312780181</v>
+        <v>0.04149445580963072</v>
       </c>
       <c r="E38">
-        <v>-0.02370977711425947</v>
+        <v>-0.03199905136555344</v>
       </c>
       <c r="F38">
-        <v>-0.00647902429618892</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.03447620836413903</v>
+      </c>
+      <c r="G38">
+        <v>0.005974847409741425</v>
+      </c>
+      <c r="H38">
+        <v>-0.0162050233770354</v>
+      </c>
+      <c r="I38">
+        <v>0.03304815134678742</v>
+      </c>
+      <c r="J38">
+        <v>0.07729863681198851</v>
+      </c>
+      <c r="K38">
+        <v>0.07190082997174464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.004822852522095777</v>
+        <v>0.02968656837924417</v>
       </c>
       <c r="C39">
-        <v>-0.1215595993052041</v>
+        <v>-0.130173987042266</v>
       </c>
       <c r="D39">
-        <v>0.06114526161179375</v>
+        <v>0.05799562484713212</v>
       </c>
       <c r="E39">
-        <v>-0.0186466485368232</v>
+        <v>0.002426127454589308</v>
       </c>
       <c r="F39">
-        <v>-0.02769544380423835</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01832472186114648</v>
+      </c>
+      <c r="G39">
+        <v>0.01097574654678086</v>
+      </c>
+      <c r="H39">
+        <v>-0.02870038173545403</v>
+      </c>
+      <c r="I39">
+        <v>0.05761437295971009</v>
+      </c>
+      <c r="J39">
+        <v>0.02634751002637126</v>
+      </c>
+      <c r="K39">
+        <v>-0.1025711865043265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.01513241048069123</v>
+        <v>0.02399393612820019</v>
       </c>
       <c r="C40">
-        <v>-0.05190098878240521</v>
+        <v>-0.07686820484413169</v>
       </c>
       <c r="D40">
-        <v>0.02405756916062985</v>
+        <v>0.03792711543277964</v>
       </c>
       <c r="E40">
-        <v>0.02920644966265817</v>
+        <v>0.02119779787422517</v>
       </c>
       <c r="F40">
-        <v>0.01928998073877042</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.003148660564396232</v>
+      </c>
+      <c r="G40">
+        <v>-0.02762983746399651</v>
+      </c>
+      <c r="H40">
+        <v>0.0149486489253739</v>
+      </c>
+      <c r="I40">
+        <v>0.1074291791716447</v>
+      </c>
+      <c r="J40">
+        <v>0.06701789546812095</v>
+      </c>
+      <c r="K40">
+        <v>0.04903982489169745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01219224659593663</v>
+        <v>0.02332921841074429</v>
       </c>
       <c r="C41">
-        <v>-0.02321989233399652</v>
+        <v>-0.04443894920604569</v>
       </c>
       <c r="D41">
-        <v>0.0009016444516070439</v>
+        <v>0.01362729417186731</v>
       </c>
       <c r="E41">
-        <v>-0.01716848284522395</v>
+        <v>0.003974604463809603</v>
       </c>
       <c r="F41">
-        <v>0.0002479112449718611</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006035189639428428</v>
+      </c>
+      <c r="G41">
+        <v>0.01230992264244554</v>
+      </c>
+      <c r="H41">
+        <v>-0.004757706828236362</v>
+      </c>
+      <c r="I41">
+        <v>-0.002252777418053891</v>
+      </c>
+      <c r="J41">
+        <v>0.02890419161176121</v>
+      </c>
+      <c r="K41">
+        <v>0.03109524784643799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.006763656881456336</v>
+        <v>0.02157317942866033</v>
       </c>
       <c r="C43">
-        <v>-0.02463062346578916</v>
+        <v>-0.04531627570655632</v>
       </c>
       <c r="D43">
-        <v>0.02417716614999283</v>
+        <v>0.02695900611953366</v>
       </c>
       <c r="E43">
-        <v>-0.006644236987431127</v>
+        <v>0.003354790696331016</v>
       </c>
       <c r="F43">
-        <v>0.006242397937969331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.005941876413005517</v>
+      </c>
+      <c r="G43">
+        <v>0.01211515224354937</v>
+      </c>
+      <c r="H43">
+        <v>-0.01182810325479542</v>
+      </c>
+      <c r="I43">
+        <v>0.005239778578466082</v>
+      </c>
+      <c r="J43">
+        <v>0.04027234317536792</v>
+      </c>
+      <c r="K43">
+        <v>0.001671566428402979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.009819499280029707</v>
+        <v>0.02135837619279752</v>
       </c>
       <c r="C44">
-        <v>-0.1090392727407791</v>
+        <v>-0.1002506778637575</v>
       </c>
       <c r="D44">
-        <v>0.05148303016807813</v>
+        <v>0.06421493624882756</v>
       </c>
       <c r="E44">
-        <v>0.0394555060325569</v>
+        <v>-0.001891075041319755</v>
       </c>
       <c r="F44">
-        <v>0.02678431967533488</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.05812096610074031</v>
+      </c>
+      <c r="G44">
+        <v>-0.02845921006989508</v>
+      </c>
+      <c r="H44">
+        <v>0.008467388189458202</v>
+      </c>
+      <c r="I44">
+        <v>0.04765474961987259</v>
+      </c>
+      <c r="J44">
+        <v>0.05409965861000331</v>
+      </c>
+      <c r="K44">
+        <v>-0.07904112199873055</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.006646401584075613</v>
+        <v>0.008258326000541388</v>
       </c>
       <c r="C46">
-        <v>-0.07045159226647274</v>
+        <v>-0.07141338014471307</v>
       </c>
       <c r="D46">
-        <v>0.06909814384683712</v>
+        <v>0.02556347868374638</v>
       </c>
       <c r="E46">
-        <v>-0.0003373779741069543</v>
+        <v>-0.01238156665679295</v>
       </c>
       <c r="F46">
-        <v>-0.0171147685053236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01634806142174424</v>
+      </c>
+      <c r="G46">
+        <v>0.002158568321848469</v>
+      </c>
+      <c r="H46">
+        <v>-0.01373222193672972</v>
+      </c>
+      <c r="I46">
+        <v>0.01480750897329636</v>
+      </c>
+      <c r="J46">
+        <v>0.09377049597983049</v>
+      </c>
+      <c r="K46">
+        <v>-0.002157525657150858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.008606420196426231</v>
+        <v>0.02183025180448588</v>
       </c>
       <c r="C47">
-        <v>-0.05756192710364906</v>
+        <v>-0.06652805096255535</v>
       </c>
       <c r="D47">
-        <v>0.04694537680254093</v>
+        <v>0.04547421151513845</v>
       </c>
       <c r="E47">
-        <v>-0.03257141861580595</v>
+        <v>0.01925074915909977</v>
       </c>
       <c r="F47">
-        <v>-0.03817894010356671</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.004658554514550404</v>
+      </c>
+      <c r="G47">
+        <v>0.004926794968663249</v>
+      </c>
+      <c r="H47">
+        <v>-0.01949463061162534</v>
+      </c>
+      <c r="I47">
+        <v>0.004053475870216105</v>
+      </c>
+      <c r="J47">
+        <v>0.07018318504484945</v>
+      </c>
+      <c r="K47">
+        <v>0.02419055266123375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.004217924836499321</v>
+        <v>0.01831346926199542</v>
       </c>
       <c r="C48">
-        <v>-0.05401819563245876</v>
+        <v>-0.04737786177469806</v>
       </c>
       <c r="D48">
-        <v>0.07482346742854036</v>
+        <v>0.0526147576171003</v>
       </c>
       <c r="E48">
-        <v>-0.02555680377865591</v>
+        <v>0.01882542551191579</v>
       </c>
       <c r="F48">
-        <v>-0.01845559903616232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01732853443705691</v>
+      </c>
+      <c r="G48">
+        <v>-0.002003448879351915</v>
+      </c>
+      <c r="H48">
+        <v>-0.03357257588186154</v>
+      </c>
+      <c r="I48">
+        <v>-0.01800350581167406</v>
+      </c>
+      <c r="J48">
+        <v>0.1189058618110043</v>
+      </c>
+      <c r="K48">
+        <v>-0.05196148256177065</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02760668205112647</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.05962875650189711</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.01828794414342962</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.03300748545476195</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.05129863977950686</v>
+      </c>
+      <c r="G49">
+        <v>0.07031903049863888</v>
+      </c>
+      <c r="H49">
+        <v>-0.04659116760851496</v>
+      </c>
+      <c r="I49">
+        <v>0.09094541577029952</v>
+      </c>
+      <c r="J49">
+        <v>-0.1033947593877133</v>
+      </c>
+      <c r="K49">
+        <v>-0.06269094146506274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.002432426428766967</v>
+        <v>0.01737041471828505</v>
       </c>
       <c r="C50">
-        <v>-0.05824752129499442</v>
+        <v>-0.07380805514848693</v>
       </c>
       <c r="D50">
-        <v>0.03277625169824808</v>
+        <v>0.03052362452921056</v>
       </c>
       <c r="E50">
-        <v>4.999145347370018e-05</v>
+        <v>0.01266988046192341</v>
       </c>
       <c r="F50">
-        <v>0.01105829463053709</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02094057903641045</v>
+      </c>
+      <c r="G50">
+        <v>-0.002106212613570578</v>
+      </c>
+      <c r="H50">
+        <v>-0.03272439659265811</v>
+      </c>
+      <c r="I50">
+        <v>0.01420813379377662</v>
+      </c>
+      <c r="J50">
+        <v>0.05497864674204529</v>
+      </c>
+      <c r="K50">
+        <v>0.04836240174983022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.0001124232106588645</v>
+        <v>-0.003947241890441574</v>
       </c>
       <c r="C51">
-        <v>-0.07497131574007304</v>
+        <v>-0.03560789465249174</v>
       </c>
       <c r="D51">
-        <v>0.04703571392177484</v>
+        <v>0.02671191776679642</v>
       </c>
       <c r="E51">
-        <v>0.0391859238064575</v>
+        <v>-0.01311282601199183</v>
       </c>
       <c r="F51">
-        <v>0.01618459172513058</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.0129330405427045</v>
+      </c>
+      <c r="G51">
+        <v>-0.01875662140948</v>
+      </c>
+      <c r="H51">
+        <v>-0.01750356969846718</v>
+      </c>
+      <c r="I51">
+        <v>0.02948771294508144</v>
+      </c>
+      <c r="J51">
+        <v>0.1128355209617566</v>
+      </c>
+      <c r="K51">
+        <v>-0.04182848125279387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03183038543636711</v>
+        <v>0.06574304993884232</v>
       </c>
       <c r="C53">
-        <v>-0.1011053397234748</v>
+        <v>-0.1269018072245319</v>
       </c>
       <c r="D53">
-        <v>0.0591116364927604</v>
+        <v>0.05818042614498829</v>
       </c>
       <c r="E53">
-        <v>-0.08820582037685025</v>
+        <v>0.01359400330321465</v>
       </c>
       <c r="F53">
-        <v>0.008298574585858878</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05032792123265274</v>
+      </c>
+      <c r="G53">
+        <v>0.03153913410031542</v>
+      </c>
+      <c r="H53">
+        <v>-0.02468595006282828</v>
+      </c>
+      <c r="I53">
+        <v>-0.09155310323885464</v>
+      </c>
+      <c r="J53">
+        <v>-0.03732633987840283</v>
+      </c>
+      <c r="K53">
+        <v>0.03005087981654605</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.005054462252108678</v>
+        <v>0.01964999521811989</v>
       </c>
       <c r="C54">
-        <v>-0.07316344011977008</v>
+        <v>-0.07302793987735695</v>
       </c>
       <c r="D54">
-        <v>0.02117298200740714</v>
+        <v>0.01035713787469534</v>
       </c>
       <c r="E54">
-        <v>-0.04186022877182026</v>
+        <v>-0.0002208755656044013</v>
       </c>
       <c r="F54">
-        <v>0.007709782577958573</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.001021817794671765</v>
+      </c>
+      <c r="G54">
+        <v>0.004086760233784085</v>
+      </c>
+      <c r="H54">
+        <v>-0.004569112855138905</v>
+      </c>
+      <c r="I54">
+        <v>0.008028769268701308</v>
+      </c>
+      <c r="J54">
+        <v>0.06184918982574882</v>
+      </c>
+      <c r="K54">
+        <v>-0.0251178382913494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01608217339542077</v>
+        <v>0.03389170594490411</v>
       </c>
       <c r="C55">
-        <v>-0.05270578025400646</v>
+        <v>-0.08029433583814775</v>
       </c>
       <c r="D55">
-        <v>0.05794727232435089</v>
+        <v>0.05266662707611319</v>
       </c>
       <c r="E55">
-        <v>-0.05862456942705899</v>
+        <v>0.01768528175075958</v>
       </c>
       <c r="F55">
-        <v>-0.02062887785688455</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03101013584398271</v>
+      </c>
+      <c r="G55">
+        <v>0.02237199417924191</v>
+      </c>
+      <c r="H55">
+        <v>-0.007490120824914757</v>
+      </c>
+      <c r="I55">
+        <v>-0.04322805058076656</v>
+      </c>
+      <c r="J55">
+        <v>-0.00512601117793146</v>
+      </c>
+      <c r="K55">
+        <v>-0.005489953182993182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01306963357487342</v>
+        <v>0.05957565584068046</v>
       </c>
       <c r="C56">
-        <v>-0.1328547009152339</v>
+        <v>-0.1554176865147716</v>
       </c>
       <c r="D56">
-        <v>0.06400824391066059</v>
+        <v>0.0840519266021905</v>
       </c>
       <c r="E56">
-        <v>-0.05404519343043017</v>
+        <v>0.03686810626655305</v>
       </c>
       <c r="F56">
-        <v>-0.01128592493680608</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.102512395266961</v>
+      </c>
+      <c r="G56">
+        <v>0.03434449327418518</v>
+      </c>
+      <c r="H56">
+        <v>-0.06546355289192972</v>
+      </c>
+      <c r="I56">
+        <v>-0.1809350742114024</v>
+      </c>
+      <c r="J56">
+        <v>-0.07225591934015205</v>
+      </c>
+      <c r="K56">
+        <v>0.01003611176014062</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.01652415596282106</v>
+        <v>0.01962102942212087</v>
       </c>
       <c r="C58">
-        <v>-0.2800502294634371</v>
+        <v>-0.168412690665884</v>
       </c>
       <c r="D58">
-        <v>-0.03357627745233049</v>
+        <v>0.04004901045094544</v>
       </c>
       <c r="E58">
-        <v>0.1810031920330658</v>
+        <v>-0.03272843412264217</v>
       </c>
       <c r="F58">
-        <v>0.1477113830430538</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2485435386681239</v>
+      </c>
+      <c r="G58">
+        <v>-0.2355226820111836</v>
+      </c>
+      <c r="H58">
+        <v>-0.0003852101666141944</v>
+      </c>
+      <c r="I58">
+        <v>-0.02168976697226504</v>
+      </c>
+      <c r="J58">
+        <v>0.1669623021699796</v>
+      </c>
+      <c r="K58">
+        <v>-0.03586648191832407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2893104166944674</v>
+        <v>0.2846031097770933</v>
       </c>
       <c r="C59">
-        <v>-0.0001815851642933849</v>
+        <v>0.06745985388686383</v>
       </c>
       <c r="D59">
-        <v>-0.0175354432033011</v>
+        <v>-0.008591836522908718</v>
       </c>
       <c r="E59">
-        <v>0.06400812635378969</v>
+        <v>-0.0006389680028819779</v>
       </c>
       <c r="F59">
-        <v>-0.04603175874686722</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.02101356757345962</v>
+      </c>
+      <c r="G59">
+        <v>-0.06041888178051826</v>
+      </c>
+      <c r="H59">
+        <v>0.0252979261830149</v>
+      </c>
+      <c r="I59">
+        <v>-0.004341108276841494</v>
+      </c>
+      <c r="J59">
+        <v>-0.007562435127521181</v>
+      </c>
+      <c r="K59">
+        <v>0.03600361115454996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1289199962132165</v>
+        <v>0.16164768312897</v>
       </c>
       <c r="C60">
-        <v>-0.1460767947169554</v>
+        <v>-0.1561336183818672</v>
       </c>
       <c r="D60">
-        <v>0.08301588566044697</v>
+        <v>0.03046791021553277</v>
       </c>
       <c r="E60">
-        <v>-0.141520490710587</v>
+        <v>0.06926688053940136</v>
       </c>
       <c r="F60">
-        <v>-0.2490025945485289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1397312420399746</v>
+      </c>
+      <c r="G60">
+        <v>0.09615536913372205</v>
+      </c>
+      <c r="H60">
+        <v>0.242780352250745</v>
+      </c>
+      <c r="I60">
+        <v>0.1346425783499675</v>
+      </c>
+      <c r="J60">
+        <v>-0.147562071716667</v>
+      </c>
+      <c r="K60">
+        <v>-0.05130202460734725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.005946541948762553</v>
+        <v>0.02907644711228274</v>
       </c>
       <c r="C61">
-        <v>-0.08644728493044369</v>
+        <v>-0.0998253070840659</v>
       </c>
       <c r="D61">
-        <v>0.07661290309485776</v>
+        <v>0.05294826538928698</v>
       </c>
       <c r="E61">
-        <v>-0.04248821727771911</v>
+        <v>0.01808153027930971</v>
       </c>
       <c r="F61">
-        <v>-0.03107031946359825</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02032860221411622</v>
+      </c>
+      <c r="G61">
+        <v>0.02525011163108906</v>
+      </c>
+      <c r="H61">
+        <v>-0.03922222204646427</v>
+      </c>
+      <c r="I61">
+        <v>0.03685462270032145</v>
+      </c>
+      <c r="J61">
+        <v>0.03162679885224191</v>
+      </c>
+      <c r="K61">
+        <v>-0.03293313695608724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002133420589624715</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01544747800268985</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003695032555522823</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.03236512257748694</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.0206492835408118</v>
+      </c>
+      <c r="G62">
+        <v>-0.001832114601816719</v>
+      </c>
+      <c r="H62">
+        <v>-0.0006538564855506627</v>
+      </c>
+      <c r="I62">
+        <v>0.02511457579918489</v>
+      </c>
+      <c r="J62">
+        <v>0.01603761792870446</v>
+      </c>
+      <c r="K62">
+        <v>0.006884514725724085</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.002097038821756764</v>
+        <v>0.02828823429100261</v>
       </c>
       <c r="C63">
-        <v>-0.05315418768931993</v>
+        <v>-0.06149601285864561</v>
       </c>
       <c r="D63">
-        <v>0.04926019898668364</v>
+        <v>0.06064247776324058</v>
       </c>
       <c r="E63">
-        <v>-0.006881394515673673</v>
+        <v>0.0154498613933142</v>
       </c>
       <c r="F63">
-        <v>0.00610557325158008</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.008929498745725682</v>
+      </c>
+      <c r="G63">
+        <v>0.002980844657398572</v>
+      </c>
+      <c r="H63">
+        <v>-0.04240650789279787</v>
+      </c>
+      <c r="I63">
+        <v>0.007859736319155482</v>
+      </c>
+      <c r="J63">
+        <v>0.05046509091591539</v>
+      </c>
+      <c r="K63">
+        <v>-0.01456539142397317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.002535053580306578</v>
+        <v>0.01646517848871322</v>
       </c>
       <c r="C64">
-        <v>-0.09011535868453895</v>
+        <v>-0.08365831873725395</v>
       </c>
       <c r="D64">
-        <v>0.09105774988989833</v>
+        <v>0.02975442447405569</v>
       </c>
       <c r="E64">
-        <v>-0.03798560319511792</v>
+        <v>0.01951586648653148</v>
       </c>
       <c r="F64">
-        <v>0.001689264912532115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03745209481774168</v>
+      </c>
+      <c r="G64">
+        <v>-0.002476128118073082</v>
+      </c>
+      <c r="H64">
+        <v>0.02794710238320504</v>
+      </c>
+      <c r="I64">
+        <v>0.03735624774252133</v>
+      </c>
+      <c r="J64">
+        <v>0.04016563077171756</v>
+      </c>
+      <c r="K64">
+        <v>-0.06819320259728358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.02024945691813925</v>
+        <v>0.03499627879226645</v>
       </c>
       <c r="C65">
-        <v>-0.1007547962058559</v>
+        <v>-0.09118018516525156</v>
       </c>
       <c r="D65">
-        <v>0.07388704524552257</v>
+        <v>0.02116178517672244</v>
       </c>
       <c r="E65">
-        <v>-0.04500375478003019</v>
+        <v>-0.003167277017424261</v>
       </c>
       <c r="F65">
-        <v>-0.01972314771932066</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.00649193502893233</v>
+      </c>
+      <c r="G65">
+        <v>0.01450736464134373</v>
+      </c>
+      <c r="H65">
+        <v>0.03472447882625625</v>
+      </c>
+      <c r="I65">
+        <v>0.07245295213596133</v>
+      </c>
+      <c r="J65">
+        <v>0.008904599458541553</v>
+      </c>
+      <c r="K65">
+        <v>-0.1001282941176538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.001259014262546064</v>
+        <v>0.02892178813924156</v>
       </c>
       <c r="C66">
-        <v>-0.1747991142099598</v>
+        <v>-0.1736644659842145</v>
       </c>
       <c r="D66">
-        <v>0.05416958676012171</v>
+        <v>0.05367660388046828</v>
       </c>
       <c r="E66">
-        <v>-0.001158308809050885</v>
+        <v>0.01411512487235</v>
       </c>
       <c r="F66">
-        <v>-0.03212965062176711</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01383621904918103</v>
+      </c>
+      <c r="G66">
+        <v>-0.004504563659063056</v>
+      </c>
+      <c r="H66">
+        <v>-0.05365287695262254</v>
+      </c>
+      <c r="I66">
+        <v>0.05087758327345205</v>
+      </c>
+      <c r="J66">
+        <v>0.03371602162111857</v>
+      </c>
+      <c r="K66">
+        <v>-0.07699148853302398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02905926271811335</v>
+        <v>0.02328541993291228</v>
       </c>
       <c r="C67">
-        <v>-0.01889238639985691</v>
+        <v>-0.05310472983501165</v>
       </c>
       <c r="D67">
-        <v>0.06035972727854838</v>
+        <v>0.04288507927618329</v>
       </c>
       <c r="E67">
-        <v>-0.05532201422443333</v>
+        <v>-0.03697628559397068</v>
       </c>
       <c r="F67">
-        <v>-0.025717846902517</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.006046728688643424</v>
+      </c>
+      <c r="G67">
+        <v>0.02917098793718339</v>
+      </c>
+      <c r="H67">
+        <v>0.01998740192087486</v>
+      </c>
+      <c r="I67">
+        <v>0.03973637544127193</v>
+      </c>
+      <c r="J67">
+        <v>0.0676464203444634</v>
+      </c>
+      <c r="K67">
+        <v>0.05896178815701204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2977014758695249</v>
+        <v>0.2849448282665209</v>
       </c>
       <c r="C68">
-        <v>0.008214819767064839</v>
+        <v>0.1017776036422834</v>
       </c>
       <c r="D68">
-        <v>0.00334156172080441</v>
+        <v>-0.03286389081946159</v>
       </c>
       <c r="E68">
-        <v>0.03777764048924021</v>
+        <v>0.05145550380529881</v>
       </c>
       <c r="F68">
-        <v>0.01284175170132411</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02766742596261276</v>
+      </c>
+      <c r="G68">
+        <v>-0.03930254312860459</v>
+      </c>
+      <c r="H68">
+        <v>-0.02035439168789328</v>
+      </c>
+      <c r="I68">
+        <v>-0.01466919058688552</v>
+      </c>
+      <c r="J68">
+        <v>0.02984738000746755</v>
+      </c>
+      <c r="K68">
+        <v>0.05266586667148201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.008628356904722054</v>
+        <v>0.01092648543174173</v>
       </c>
       <c r="C69">
-        <v>-0.0461843743655014</v>
+        <v>-0.04475046475028805</v>
       </c>
       <c r="D69">
-        <v>0.04390696641579436</v>
+        <v>0.02438916812354951</v>
       </c>
       <c r="E69">
-        <v>-0.03669129759273376</v>
+        <v>-0.0184253879017932</v>
       </c>
       <c r="F69">
-        <v>-0.009462516160647052</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.006476189754406204</v>
+      </c>
+      <c r="G69">
+        <v>-0.000767252452576839</v>
+      </c>
+      <c r="H69">
+        <v>0.01698686076349388</v>
+      </c>
+      <c r="I69">
+        <v>0.01204248981460386</v>
+      </c>
+      <c r="J69">
+        <v>0.03134409159885092</v>
+      </c>
+      <c r="K69">
+        <v>0.03699044596264184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.284932351981466</v>
+        <v>0.271539379899217</v>
       </c>
       <c r="C71">
-        <v>0.03308917382737412</v>
+        <v>0.08933605077445853</v>
       </c>
       <c r="D71">
-        <v>-0.01047132862215799</v>
+        <v>-0.01926847016177639</v>
       </c>
       <c r="E71">
-        <v>0.03656490136512738</v>
+        <v>-0.009018194580404896</v>
       </c>
       <c r="F71">
-        <v>0.03234579593902232</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.05099452080083492</v>
+      </c>
+      <c r="G71">
+        <v>-0.03858817501051288</v>
+      </c>
+      <c r="H71">
+        <v>-0.004715414085650924</v>
+      </c>
+      <c r="I71">
+        <v>-0.01587153759226811</v>
+      </c>
+      <c r="J71">
+        <v>0.05800507337628904</v>
+      </c>
+      <c r="K71">
+        <v>0.1076048682903103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.02102351188465025</v>
+        <v>0.05925290185767569</v>
       </c>
       <c r="C72">
-        <v>-0.1335474309891816</v>
+        <v>-0.1304780781653337</v>
       </c>
       <c r="D72">
-        <v>0.05049105916230794</v>
+        <v>0.04261086702065808</v>
       </c>
       <c r="E72">
-        <v>-0.04947937107984694</v>
+        <v>0.04349773937402278</v>
       </c>
       <c r="F72">
-        <v>0.02785533647291204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02798775838421104</v>
+      </c>
+      <c r="G72">
+        <v>0.02827474659790167</v>
+      </c>
+      <c r="H72">
+        <v>-0.01943258781312511</v>
+      </c>
+      <c r="I72">
+        <v>0.005387607813663747</v>
+      </c>
+      <c r="J72">
+        <v>0.05382903257823368</v>
+      </c>
+      <c r="K72">
+        <v>-0.108880116781854</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.1027671236394565</v>
+        <v>0.1617799673129834</v>
       </c>
       <c r="C73">
-        <v>-0.107034355016997</v>
+        <v>-0.1830042674734185</v>
       </c>
       <c r="D73">
-        <v>0.1344305435017782</v>
+        <v>0.0723955211245931</v>
       </c>
       <c r="E73">
-        <v>-0.221995957697219</v>
+        <v>0.02482188346009024</v>
       </c>
       <c r="F73">
-        <v>-0.3076489043048479</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1653451542029201</v>
+      </c>
+      <c r="G73">
+        <v>0.1975483558571626</v>
+      </c>
+      <c r="H73">
+        <v>0.3697226558054896</v>
+      </c>
+      <c r="I73">
+        <v>0.2942031759985092</v>
+      </c>
+      <c r="J73">
+        <v>-0.1830926003987173</v>
+      </c>
+      <c r="K73">
+        <v>0.08219110279710204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01791230727489321</v>
+        <v>0.04287120369353878</v>
       </c>
       <c r="C74">
-        <v>-0.08101526883464313</v>
+        <v>-0.09778959425366615</v>
       </c>
       <c r="D74">
-        <v>0.07527561701784705</v>
+        <v>0.0442436036252141</v>
       </c>
       <c r="E74">
-        <v>-0.05495429938733965</v>
+        <v>0.02441414711073134</v>
       </c>
       <c r="F74">
-        <v>-0.01594461955173092</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01180621549103537</v>
+      </c>
+      <c r="G74">
+        <v>0.02865755510349967</v>
+      </c>
+      <c r="H74">
+        <v>-0.005836583518930424</v>
+      </c>
+      <c r="I74">
+        <v>-0.06234761852511401</v>
+      </c>
+      <c r="J74">
+        <v>0.01612701036717035</v>
+      </c>
+      <c r="K74">
+        <v>-0.01683128507739</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03202830478803818</v>
+        <v>0.07021943943812266</v>
       </c>
       <c r="C75">
-        <v>-0.1322790124705683</v>
+        <v>-0.1590182739534051</v>
       </c>
       <c r="D75">
-        <v>0.05211268313639197</v>
+        <v>0.08703731108880106</v>
       </c>
       <c r="E75">
-        <v>-0.1101199982081218</v>
+        <v>0.04293547235610173</v>
       </c>
       <c r="F75">
-        <v>0.01891570940979527</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.04164983323451904</v>
+      </c>
+      <c r="G75">
+        <v>0.08692674030207931</v>
+      </c>
+      <c r="H75">
+        <v>-0.1343350086499903</v>
+      </c>
+      <c r="I75">
+        <v>-0.1916945955919332</v>
+      </c>
+      <c r="J75">
+        <v>-0.06106500340089582</v>
+      </c>
+      <c r="K75">
+        <v>0.159534369211595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.01634703744783433</v>
+        <v>0.05230442168035558</v>
       </c>
       <c r="C76">
-        <v>-0.09587510292643682</v>
+        <v>-0.1262424523533329</v>
       </c>
       <c r="D76">
-        <v>0.06963411774775728</v>
+        <v>0.07750261421948791</v>
       </c>
       <c r="E76">
-        <v>-0.09018755335563212</v>
+        <v>0.02515085075868758</v>
       </c>
       <c r="F76">
-        <v>-0.01517201398514677</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.06020024896068994</v>
+      </c>
+      <c r="G76">
+        <v>0.04910929924364464</v>
+      </c>
+      <c r="H76">
+        <v>-0.06798026872950222</v>
+      </c>
+      <c r="I76">
+        <v>-0.08233533455345413</v>
+      </c>
+      <c r="J76">
+        <v>-0.06384972041590814</v>
+      </c>
+      <c r="K76">
+        <v>-0.005816660113748548</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.086470006386344</v>
+        <v>0.06818490636091856</v>
       </c>
       <c r="C77">
-        <v>-0.3491333458171977</v>
+        <v>-0.3886900482251212</v>
       </c>
       <c r="D77">
-        <v>-0.8240650173284502</v>
+        <v>-0.9026250123196373</v>
       </c>
       <c r="E77">
-        <v>-0.3472298538349545</v>
+        <v>0.01627474379824231</v>
       </c>
       <c r="F77">
-        <v>-0.08077872771459424</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.001897037960994612</v>
+      </c>
+      <c r="G77">
+        <v>0.07176121331097177</v>
+      </c>
+      <c r="H77">
+        <v>-0.09666181520499365</v>
+      </c>
+      <c r="I77">
+        <v>0.006083718478353685</v>
+      </c>
+      <c r="J77">
+        <v>0.01436305113947961</v>
+      </c>
+      <c r="K77">
+        <v>0.02996748262353342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02133680680951451</v>
+        <v>0.04059386603778044</v>
       </c>
       <c r="C78">
-        <v>-0.1310619274513977</v>
+        <v>-0.1092593802701105</v>
       </c>
       <c r="D78">
-        <v>0.1450425486690208</v>
+        <v>0.08665461669849336</v>
       </c>
       <c r="E78">
-        <v>0.1010056255618746</v>
+        <v>-0.02067997239402437</v>
       </c>
       <c r="F78">
-        <v>-0.08367770321053465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.03612162758198215</v>
+      </c>
+      <c r="G78">
+        <v>-0.02489318856308945</v>
+      </c>
+      <c r="H78">
+        <v>-0.04897553788562677</v>
+      </c>
+      <c r="I78">
+        <v>-0.06659699261998631</v>
+      </c>
+      <c r="J78">
+        <v>0.06909684863786782</v>
+      </c>
+      <c r="K78">
+        <v>-0.1351712035960161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02292948039952902</v>
+        <v>0.06099258163458397</v>
       </c>
       <c r="C79">
-        <v>-0.1264249016299884</v>
+        <v>-0.1343338467329948</v>
       </c>
       <c r="D79">
-        <v>0.08236571982056902</v>
+        <v>0.05794117254849117</v>
       </c>
       <c r="E79">
-        <v>-0.08169506426385939</v>
+        <v>0.01138168936681272</v>
       </c>
       <c r="F79">
-        <v>0.002345300686419767</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.03585727715330148</v>
+      </c>
+      <c r="G79">
+        <v>0.008702700536956286</v>
+      </c>
+      <c r="H79">
+        <v>-0.1028783596682511</v>
+      </c>
+      <c r="I79">
+        <v>-0.2357127817941974</v>
+      </c>
+      <c r="J79">
+        <v>-0.00888312554095959</v>
+      </c>
+      <c r="K79">
+        <v>0.06366001437868807</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.009343117818149092</v>
+        <v>0.02130812166176551</v>
       </c>
       <c r="C80">
-        <v>-0.0560631335818396</v>
+        <v>-0.04243092429069047</v>
       </c>
       <c r="D80">
-        <v>0.03481429118183269</v>
+        <v>0.03353505603857209</v>
       </c>
       <c r="E80">
-        <v>0.0276124711804373</v>
+        <v>-0.009324040045216288</v>
       </c>
       <c r="F80">
-        <v>-0.02896703104494792</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02107048633789766</v>
+      </c>
+      <c r="G80">
+        <v>-0.06198847623296986</v>
+      </c>
+      <c r="H80">
+        <v>0.04557256921173846</v>
+      </c>
+      <c r="I80">
+        <v>0.06497499149424002</v>
+      </c>
+      <c r="J80">
+        <v>-0.01714870623886286</v>
+      </c>
+      <c r="K80">
+        <v>0.02124263835807056</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.001249274677213457</v>
+        <v>0.02327586576267293</v>
       </c>
       <c r="C81">
-        <v>-0.08171931693965816</v>
+        <v>-0.1027909849671893</v>
       </c>
       <c r="D81">
-        <v>0.05545564756836172</v>
+        <v>0.05530048559791084</v>
       </c>
       <c r="E81">
-        <v>-0.07871211734939938</v>
+        <v>0.006674650015532239</v>
       </c>
       <c r="F81">
-        <v>-0.004533382682596156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.04067219208447869</v>
+      </c>
+      <c r="G81">
+        <v>0.01840929627496802</v>
+      </c>
+      <c r="H81">
+        <v>-0.06176155633395018</v>
+      </c>
+      <c r="I81">
+        <v>-0.1084747485395885</v>
+      </c>
+      <c r="J81">
+        <v>0.037889934994409</v>
+      </c>
+      <c r="K81">
+        <v>0.05478775241340623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01868504159170421</v>
+        <v>0.05218616471051939</v>
       </c>
       <c r="C82">
-        <v>-0.07430757833050897</v>
+        <v>-0.1073481931931943</v>
       </c>
       <c r="D82">
-        <v>0.07191462342451979</v>
+        <v>0.06645462163465009</v>
       </c>
       <c r="E82">
-        <v>-0.08646162383477402</v>
+        <v>0.007119395157766884</v>
       </c>
       <c r="F82">
-        <v>-0.01849429914441827</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.06812580200401651</v>
+      </c>
+      <c r="G82">
+        <v>0.03949253344307563</v>
+      </c>
+      <c r="H82">
+        <v>-0.06671480856547146</v>
+      </c>
+      <c r="I82">
+        <v>-0.06655328119673286</v>
+      </c>
+      <c r="J82">
+        <v>-0.03523524702896706</v>
+      </c>
+      <c r="K82">
+        <v>0.009466386614314442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.009599000297567434</v>
+        <v>-0.000579125291670222</v>
       </c>
       <c r="C83">
-        <v>-0.007515450980078059</v>
+        <v>0.02153424074544809</v>
       </c>
       <c r="D83">
-        <v>-0.1746868670998205</v>
+        <v>-0.06667273542270881</v>
       </c>
       <c r="E83">
-        <v>0.5013173475376884</v>
+        <v>-0.008695376722905317</v>
       </c>
       <c r="F83">
-        <v>-0.7190802548799587</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.659946850750245</v>
+      </c>
+      <c r="G83">
+        <v>-0.6973408097749382</v>
+      </c>
+      <c r="H83">
+        <v>-0.04099713663194356</v>
+      </c>
+      <c r="I83">
+        <v>0.03322596175353655</v>
+      </c>
+      <c r="J83">
+        <v>-0.1080967781584627</v>
+      </c>
+      <c r="K83">
+        <v>-0.07037635804466962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.01014341783446157</v>
+        <v>0.01574818332651553</v>
       </c>
       <c r="C84">
-        <v>-0.104274577535886</v>
+        <v>-0.06535267456078253</v>
       </c>
       <c r="D84">
-        <v>0.02373308568751932</v>
+        <v>0.0943174268775952</v>
       </c>
       <c r="E84">
-        <v>0.05634282084388853</v>
+        <v>-0.1381486034854947</v>
       </c>
       <c r="F84">
-        <v>0.1449363129242966</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.1882865196295981</v>
+      </c>
+      <c r="G84">
+        <v>-0.09467292935991299</v>
+      </c>
+      <c r="H84">
+        <v>-0.6219714561205023</v>
+      </c>
+      <c r="I84">
+        <v>0.4976452909993898</v>
+      </c>
+      <c r="J84">
+        <v>-0.4314174550673855</v>
+      </c>
+      <c r="K84">
+        <v>0.1342846690845226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.005022063949394416</v>
+        <v>0.03746368020094924</v>
       </c>
       <c r="C85">
-        <v>-0.08631071391471257</v>
+        <v>-0.1145380159534513</v>
       </c>
       <c r="D85">
-        <v>0.04734479206030477</v>
+        <v>0.07674476184214472</v>
       </c>
       <c r="E85">
-        <v>-0.07595536789428314</v>
+        <v>0.02206279696144137</v>
       </c>
       <c r="F85">
-        <v>-0.006697451084483989</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.0910821459112245</v>
+      </c>
+      <c r="G85">
+        <v>0.07339976182461243</v>
+      </c>
+      <c r="H85">
+        <v>-0.131797879032641</v>
+      </c>
+      <c r="I85">
+        <v>-0.217545599192284</v>
+      </c>
+      <c r="J85">
+        <v>-0.08643016736944929</v>
+      </c>
+      <c r="K85">
+        <v>0.0830547534654368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01348748830098105</v>
+        <v>0.01796169656343509</v>
       </c>
       <c r="C86">
-        <v>-0.1072789683221824</v>
+        <v>-0.07924629318388129</v>
       </c>
       <c r="D86">
-        <v>0.009627734773844127</v>
+        <v>0.03888507502007497</v>
       </c>
       <c r="E86">
-        <v>0.03032128459939218</v>
+        <v>-0.03777978404389367</v>
       </c>
       <c r="F86">
-        <v>0.03644240838754501</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.05262867994753496</v>
+      </c>
+      <c r="G86">
+        <v>-0.07561626407443015</v>
+      </c>
+      <c r="H86">
+        <v>0.05443318810474512</v>
+      </c>
+      <c r="I86">
+        <v>-0.08639226054691397</v>
+      </c>
+      <c r="J86">
+        <v>0.04708755312776463</v>
+      </c>
+      <c r="K86">
+        <v>0.07420892917350667</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.008327453985282488</v>
+        <v>0.03252954633568358</v>
       </c>
       <c r="C87">
-        <v>-0.1643200601467437</v>
+        <v>-0.1236659785246604</v>
       </c>
       <c r="D87">
-        <v>0.04638872028528665</v>
+        <v>0.02189057773169676</v>
       </c>
       <c r="E87">
-        <v>0.08615249196659296</v>
+        <v>0.04520769874682145</v>
       </c>
       <c r="F87">
-        <v>0.06374107870316414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.02096742941648735</v>
+      </c>
+      <c r="G87">
+        <v>-0.03088085217111957</v>
+      </c>
+      <c r="H87">
+        <v>-0.02606926987203969</v>
+      </c>
+      <c r="I87">
+        <v>-0.002936327960859582</v>
+      </c>
+      <c r="J87">
+        <v>0.02745607643446266</v>
+      </c>
+      <c r="K87">
+        <v>-0.08177455575660378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.01106601511220282</v>
+        <v>0.04076355051253341</v>
       </c>
       <c r="C88">
-        <v>-0.03359195390302745</v>
+        <v>-0.05684955909961827</v>
       </c>
       <c r="D88">
-        <v>0.04494361354902063</v>
+        <v>0.03558476824001941</v>
       </c>
       <c r="E88">
-        <v>-0.0501499681023834</v>
+        <v>0.02233091280282104</v>
       </c>
       <c r="F88">
-        <v>-0.01151869847601814</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01165309216466425</v>
+      </c>
+      <c r="G88">
+        <v>0.02009489254507466</v>
+      </c>
+      <c r="H88">
+        <v>0.01051186447942781</v>
+      </c>
+      <c r="I88">
+        <v>-0.004531982144459408</v>
+      </c>
+      <c r="J88">
+        <v>0.01768808965767384</v>
+      </c>
+      <c r="K88">
+        <v>-0.004708094806269286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4133328629349075</v>
+        <v>0.3868206256061743</v>
       </c>
       <c r="C89">
-        <v>0.0616313887530143</v>
+        <v>0.1344095276750098</v>
       </c>
       <c r="D89">
-        <v>0.08960807951599334</v>
+        <v>-0.03178707540640514</v>
       </c>
       <c r="E89">
-        <v>0.0938880561811628</v>
+        <v>0.0273357670653458</v>
       </c>
       <c r="F89">
-        <v>0.05832690791714534</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.05924314694714888</v>
+      </c>
+      <c r="G89">
+        <v>0.006334501237245317</v>
+      </c>
+      <c r="H89">
+        <v>-0.06886929440853833</v>
+      </c>
+      <c r="I89">
+        <v>0.03935921907029027</v>
+      </c>
+      <c r="J89">
+        <v>-0.002734440740004349</v>
+      </c>
+      <c r="K89">
+        <v>-0.7267139504077723</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3077403925267607</v>
+        <v>0.3137153960079266</v>
       </c>
       <c r="C90">
-        <v>0.01378430678695676</v>
+        <v>0.09166114921283737</v>
       </c>
       <c r="D90">
-        <v>-0.01816221284953417</v>
+        <v>-0.02040570372223849</v>
       </c>
       <c r="E90">
-        <v>0.05212993287516286</v>
+        <v>-0.00577383669373176</v>
       </c>
       <c r="F90">
-        <v>-0.01031828881508254</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01823985391502438</v>
+      </c>
+      <c r="G90">
+        <v>-0.02772225257934082</v>
+      </c>
+      <c r="H90">
+        <v>-0.02275596564538358</v>
+      </c>
+      <c r="I90">
+        <v>0.006492082198830519</v>
+      </c>
+      <c r="J90">
+        <v>0.009432870840322386</v>
+      </c>
+      <c r="K90">
+        <v>0.09283096340219771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02986428080809085</v>
+        <v>0.0598430437303727</v>
       </c>
       <c r="C91">
-        <v>-0.07127604119466129</v>
+        <v>-0.07267993815286108</v>
       </c>
       <c r="D91">
-        <v>0.05744439624522996</v>
+        <v>0.05241582077647768</v>
       </c>
       <c r="E91">
-        <v>-0.02975127462103461</v>
+        <v>0.01841914334846243</v>
       </c>
       <c r="F91">
-        <v>-0.0377873801172493</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.06192539348452838</v>
+      </c>
+      <c r="G91">
+        <v>-0.001615761207620545</v>
+      </c>
+      <c r="H91">
+        <v>-0.01920294785880958</v>
+      </c>
+      <c r="I91">
+        <v>-0.09503858641977997</v>
+      </c>
+      <c r="J91">
+        <v>-0.04055303787899072</v>
+      </c>
+      <c r="K91">
+        <v>0.02779820602056605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3758000660524813</v>
+        <v>0.3468829900055425</v>
       </c>
       <c r="C92">
-        <v>0.05745005985991198</v>
+        <v>0.1288350727161607</v>
       </c>
       <c r="D92">
-        <v>-0.01285127950551114</v>
+        <v>-0.04893306040887067</v>
       </c>
       <c r="E92">
-        <v>-0.01327572518255929</v>
+        <v>0.02768753569018636</v>
       </c>
       <c r="F92">
-        <v>0.1216395081307193</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.06564416619924218</v>
+      </c>
+      <c r="G92">
+        <v>-0.01180002944483339</v>
+      </c>
+      <c r="H92">
+        <v>-0.02657334009937064</v>
+      </c>
+      <c r="I92">
+        <v>-0.01796351010940679</v>
+      </c>
+      <c r="J92">
+        <v>0.06012098199782433</v>
+      </c>
+      <c r="K92">
+        <v>0.1318530995022815</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3132590051362518</v>
+        <v>0.3034497529010266</v>
       </c>
       <c r="C93">
-        <v>0.07215156068356295</v>
+        <v>0.1323940109241832</v>
       </c>
       <c r="D93">
-        <v>-0.01088719005658742</v>
+        <v>-0.00729927555048517</v>
       </c>
       <c r="E93">
-        <v>0.05421944768879262</v>
+        <v>-0.02945163525907446</v>
       </c>
       <c r="F93">
-        <v>0.03339450218741336</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.04056242581543872</v>
+      </c>
+      <c r="G93">
+        <v>-0.0358022112928142</v>
+      </c>
+      <c r="H93">
+        <v>-0.01560601542736403</v>
+      </c>
+      <c r="I93">
+        <v>-0.03650030730665609</v>
+      </c>
+      <c r="J93">
+        <v>0.03332858567283566</v>
+      </c>
+      <c r="K93">
+        <v>0.1283689502023129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.03012956390295415</v>
+        <v>0.09140023674736297</v>
       </c>
       <c r="C94">
-        <v>-0.1928426161279181</v>
+        <v>-0.1670534472107296</v>
       </c>
       <c r="D94">
-        <v>0.06968582213622797</v>
+        <v>0.1013979321737096</v>
       </c>
       <c r="E94">
-        <v>-0.08787834494508573</v>
+        <v>0.02062034568675315</v>
       </c>
       <c r="F94">
-        <v>0.1056228313815188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.0725705426739101</v>
+      </c>
+      <c r="G94">
+        <v>0.04986146846782688</v>
+      </c>
+      <c r="H94">
+        <v>-0.1644968923692909</v>
+      </c>
+      <c r="I94">
+        <v>-0.4490396914500189</v>
+      </c>
+      <c r="J94">
+        <v>-0.2513603899206101</v>
+      </c>
+      <c r="K94">
+        <v>0.007059675470022969</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02961393549213589</v>
+        <v>0.04706658858956297</v>
       </c>
       <c r="C95">
-        <v>-0.1227373092094119</v>
+        <v>-0.1289042343334253</v>
       </c>
       <c r="D95">
-        <v>0.08827992823515418</v>
+        <v>0.07117087264107345</v>
       </c>
       <c r="E95">
-        <v>-0.1421532991243608</v>
+        <v>0.05053604943971559</v>
       </c>
       <c r="F95">
-        <v>-0.08323601909630914</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03021015157133513</v>
+      </c>
+      <c r="G95">
+        <v>0.07100154353080812</v>
+      </c>
+      <c r="H95">
+        <v>-0.1086860370347448</v>
+      </c>
+      <c r="I95">
+        <v>0.05096276200171682</v>
+      </c>
+      <c r="J95">
+        <v>-0.04109427330900933</v>
+      </c>
+      <c r="K95">
+        <v>-0.07254340510090004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0007720962481648704</v>
+        <v>0.02534036557932097</v>
       </c>
       <c r="C97">
-        <v>-0.0006289588536021309</v>
+        <v>-0.02859268423811648</v>
       </c>
       <c r="D97">
-        <v>0.001968905907294503</v>
+        <v>0.003939425976488927</v>
       </c>
       <c r="E97">
-        <v>-0.004807512780070563</v>
+        <v>-0.03327377154864165</v>
       </c>
       <c r="F97">
-        <v>0.001355190851076587</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.01849980345360301</v>
+      </c>
+      <c r="G97">
+        <v>0.0157520627148454</v>
+      </c>
+      <c r="H97">
+        <v>0.002182916991196645</v>
+      </c>
+      <c r="I97">
+        <v>-0.008241946304287975</v>
+      </c>
+      <c r="J97">
+        <v>0.03138180277038737</v>
+      </c>
+      <c r="K97">
+        <v>-0.05597180998324341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.09451254520959818</v>
+        <v>0.1459627686818899</v>
       </c>
       <c r="C98">
-        <v>-0.155004451437664</v>
+        <v>-0.1597896523968349</v>
       </c>
       <c r="D98">
-        <v>0.1630493487565965</v>
+        <v>0.08809070951598708</v>
       </c>
       <c r="E98">
-        <v>-0.1522417768221199</v>
+        <v>0.004126685115876647</v>
       </c>
       <c r="F98">
-        <v>-0.2220636665767791</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1840597191530104</v>
+      </c>
+      <c r="G98">
+        <v>0.1581647188247313</v>
+      </c>
+      <c r="H98">
+        <v>0.3216481239915686</v>
+      </c>
+      <c r="I98">
+        <v>0.2151136867297814</v>
+      </c>
+      <c r="J98">
+        <v>-0.2096611761686354</v>
+      </c>
+      <c r="K98">
+        <v>0.09830612619579732</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.04292929618242343</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.08829104766122436</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.006916274215295829</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.9671850412027007</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.04182247750814775</v>
+      </c>
+      <c r="G99">
+        <v>0.04665784365953948</v>
+      </c>
+      <c r="H99">
+        <v>0.09077213225188961</v>
+      </c>
+      <c r="I99">
+        <v>-0.08000646662823488</v>
+      </c>
+      <c r="J99">
+        <v>0.02350007578156925</v>
+      </c>
+      <c r="K99">
+        <v>-0.06737440701731924</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.001776475440763964</v>
+        <v>0.01957014387185692</v>
       </c>
       <c r="C101">
-        <v>-0.07496133560636407</v>
+        <v>-0.0787274856799874</v>
       </c>
       <c r="D101">
-        <v>0.05444117651432952</v>
+        <v>0.04276271153759154</v>
       </c>
       <c r="E101">
-        <v>-0.009597368524899641</v>
+        <v>0.01142606478138228</v>
       </c>
       <c r="F101">
-        <v>-0.03916966188132458</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03686035243510506</v>
+      </c>
+      <c r="G101">
+        <v>-0.0241046776926621</v>
+      </c>
+      <c r="H101">
+        <v>-0.05994997833859533</v>
+      </c>
+      <c r="I101">
+        <v>0.1574548921722366</v>
+      </c>
+      <c r="J101">
+        <v>0.2489116726293459</v>
+      </c>
+      <c r="K101">
+        <v>0.04002871863345377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.001743252973420756</v>
+        <v>0.001027337783017094</v>
       </c>
       <c r="C102">
-        <v>-0.003913437206074922</v>
+        <v>-0.001540168765940397</v>
       </c>
       <c r="D102">
-        <v>0.00592774236375836</v>
+        <v>0.0003305444317643633</v>
       </c>
       <c r="E102">
-        <v>-0.00554135602182263</v>
+        <v>0.001223141528383589</v>
       </c>
       <c r="F102">
-        <v>-0.009915408391893919</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.005192640024986346</v>
+      </c>
+      <c r="G102">
+        <v>0.002155442779387537</v>
+      </c>
+      <c r="H102">
+        <v>-0.001388905544706561</v>
+      </c>
+      <c r="I102">
+        <v>0.001838264725759178</v>
+      </c>
+      <c r="J102">
+        <v>0.002986406945427765</v>
+      </c>
+      <c r="K102">
+        <v>-0.02399101499620021</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
